--- a/medicine/Sexualité et sexologie/Histoire_d'O_(film)/Histoire_d'O_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Histoire_d'O_(film)/Histoire_d'O_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Histoire_d%27O_(film)</t>
+          <t>Histoire_d'O_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Histoire d’O (The Story of O) est un film franco-germano-britannico-canadien réalisé par Just Jaeckin, sorti en 1975.
-Le scénario du film est une adaptation du roman érotique Histoire d’O publié en 1954 par Pauline Réage[1].
+Le scénario du film est une adaptation du roman érotique Histoire d’O publié en 1954 par Pauline Réage.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Histoire_d%27O_(film)</t>
+          <t>Histoire_d'O_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">O est une jeune femme libre et indépendante, qui est emmenée par son amant René dans un château situé à Roissy où elle devient esclave de son plein gré. René la donne ensuite à Sir Stephen qui devient le nouveau maître d'O. D'abord réticente, O devient amoureuse de Sir Stephen. Ce dernier la fait marquer au fer rouge et la soumet à diverses pratiques sexuelles sado-masochistes.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Histoire_d%27O_(film)</t>
+          <t>Histoire_d'O_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Histoire d’O
 Titre anglais : The Story of O
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Histoire_d%27O_(film)</t>
+          <t>Histoire_d'O_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Corinne Cléry : O
@@ -644,7 +662,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Histoire_d%27O_(film)</t>
+          <t>Histoire_d'O_(film)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -662,13 +680,15 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Christopher Lee a refusé le rôle de Sir Stephen.
 Histoire d'O a été initialement interdite au Royaume-Uni en 1975, mais les sorties vidéo / DVD ont été approuvées par le British Board of Film Classification en 2000.
 Le film était basé sur le célèbre roman érotique de l'écrivain français Pauline Réage.
-Anulka Dziubinska devait à l'origine jouer le rôle principal de "O". Mais elle a refusé le rôle sur la recommandation de son agent[2].
-Le film devait à l'origine être réalisé par Alejandro Jodorowsky et produit par Alan Klien. Klien a soutenu financièrement les deux films précédents de Jodorow, El Topo (1970) et La Montagne sacrée (1973). Mais Alejandro Jodorowsky s'est retiré du projet et Alan Klien a eu du mal à trouver un remplaçant et a finalement vendu les droits du film[2].</t>
+Anulka Dziubinska devait à l'origine jouer le rôle principal de "O". Mais elle a refusé le rôle sur la recommandation de son agent.
+Le film devait à l'origine être réalisé par Alejandro Jodorowsky et produit par Alan Klien. Klien a soutenu financièrement les deux films précédents de Jodorow, El Topo (1970) et La Montagne sacrée (1973). Mais Alejandro Jodorowsky s'est retiré du projet et Alan Klien a eu du mal à trouver un remplaçant et a finalement vendu les droits du film.</t>
         </is>
       </c>
     </row>
